--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efna2</t>
+  </si>
+  <si>
+    <t>Epha4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efna2</t>
-  </si>
-  <si>
-    <t>Epha4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H2">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I2">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J2">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N2">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O2">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P2">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q2">
-        <v>32.6999006670735</v>
+        <v>11.98218896258475</v>
       </c>
       <c r="R2">
-        <v>130.799602668294</v>
+        <v>47.928755850339</v>
       </c>
       <c r="S2">
-        <v>0.1416083851067171</v>
+        <v>0.1621070735469648</v>
       </c>
       <c r="T2">
-        <v>0.09153109920315768</v>
+        <v>0.1236600778736366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H3">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I3">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J3">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P3">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q3">
-        <v>6.534322948635999</v>
+        <v>3.606578043614</v>
       </c>
       <c r="R3">
-        <v>39.205937691816</v>
+        <v>21.639468261684</v>
       </c>
       <c r="S3">
-        <v>0.02829717832916334</v>
+        <v>0.04879340611257431</v>
       </c>
       <c r="T3">
-        <v>0.02743557701259211</v>
+        <v>0.05583158341809961</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H4">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I4">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J4">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N4">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O4">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P4">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q4">
-        <v>5.192940150702499</v>
+        <v>0.133760782441</v>
       </c>
       <c r="R4">
-        <v>20.77176060281</v>
+        <v>0.802564694646</v>
       </c>
       <c r="S4">
-        <v>0.02248826001594779</v>
+        <v>0.001809650061818525</v>
       </c>
       <c r="T4">
-        <v>0.01453568697132528</v>
+        <v>0.002070682012870438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H5">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I5">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J5">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N5">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O5">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P5">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q5">
-        <v>19.17484233022167</v>
+        <v>3.336913486988251</v>
       </c>
       <c r="R5">
-        <v>115.04905398133</v>
+        <v>13.347653947953</v>
       </c>
       <c r="S5">
-        <v>0.08303751392715228</v>
+        <v>0.04514511344664809</v>
       </c>
       <c r="T5">
-        <v>0.08050916178927493</v>
+        <v>0.03443802989145497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H6">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I6">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J6">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N6">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O6">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P6">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q6">
-        <v>0.08358866223399998</v>
+        <v>0.01606738725583333</v>
       </c>
       <c r="R6">
-        <v>0.5015319734039999</v>
+        <v>0.096404323535</v>
       </c>
       <c r="S6">
-        <v>0.0003619844473749871</v>
+        <v>0.0002173757345775556</v>
       </c>
       <c r="T6">
-        <v>0.0003509626319554912</v>
+        <v>0.0002487309746349078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -859,10 +859,10 @@
         <v>6.92846</v>
       </c>
       <c r="I7">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J7">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N7">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O7">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P7">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q7">
-        <v>24.07029106251</v>
+        <v>15.97998374819</v>
       </c>
       <c r="R7">
-        <v>144.42174637506</v>
+        <v>95.87990248914001</v>
       </c>
       <c r="S7">
-        <v>0.1042374740251998</v>
+        <v>0.216193252237639</v>
       </c>
       <c r="T7">
-        <v>0.1010636188863074</v>
+        <v>0.2473779257977521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -921,10 +921,10 @@
         <v>6.92846</v>
       </c>
       <c r="I8">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J8">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P8">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q8">
         <v>4.809893977093334</v>
@@ -951,10 +951,10 @@
         <v>43.28904579384</v>
       </c>
       <c r="S8">
-        <v>0.0208294613970052</v>
+        <v>0.06507307130045248</v>
       </c>
       <c r="T8">
-        <v>0.03029285918409345</v>
+        <v>0.1116892495740386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>6.92846</v>
       </c>
       <c r="I9">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J9">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N9">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O9">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P9">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q9">
-        <v>3.822506440316667</v>
+        <v>0.1783893691066667</v>
       </c>
       <c r="R9">
-        <v>22.9350386419</v>
+        <v>1.60550432196</v>
       </c>
       <c r="S9">
-        <v>0.01655353542459899</v>
+        <v>0.002413430356345587</v>
       </c>
       <c r="T9">
-        <v>0.01604950821206791</v>
+        <v>0.004142331382437282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>6.92846</v>
       </c>
       <c r="I10">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J10">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N10">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O10">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P10">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q10">
-        <v>14.11453938852223</v>
+        <v>4.450257249130001</v>
       </c>
       <c r="R10">
-        <v>127.0308544967</v>
+        <v>26.70154349478</v>
       </c>
       <c r="S10">
-        <v>0.06112364528820637</v>
+        <v>0.06020754483511408</v>
       </c>
       <c r="T10">
-        <v>0.08889380019208426</v>
+        <v>0.06889214813381049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>6.92846</v>
       </c>
       <c r="I11">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J11">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N11">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O11">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P11">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q11">
-        <v>0.06152934377333334</v>
+        <v>0.02142818712222222</v>
       </c>
       <c r="R11">
-        <v>0.55376409396</v>
+        <v>0.1928536841</v>
       </c>
       <c r="S11">
-        <v>0.0002664555803128548</v>
+        <v>0.0002899020134507107</v>
       </c>
       <c r="T11">
-        <v>0.0003875136864745691</v>
+        <v>0.0004975781484604306</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,19 +1160,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H12">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I12">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J12">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N12">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O12">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P12">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q12">
-        <v>6.114795971850001</v>
+        <v>16.487992636227</v>
       </c>
       <c r="R12">
-        <v>36.6887758311</v>
+        <v>65.95197054490801</v>
       </c>
       <c r="S12">
-        <v>0.02648039795737498</v>
+        <v>0.2230661061404338</v>
       </c>
       <c r="T12">
-        <v>0.02567411453653332</v>
+        <v>0.1701614337532492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,19 +1222,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H13">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I13">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J13">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>6.248004</v>
       </c>
       <c r="O13">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P13">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q13">
-        <v>1.2219013156</v>
+        <v>4.962802073208</v>
       </c>
       <c r="R13">
-        <v>10.9971118404</v>
+        <v>29.776812439248</v>
       </c>
       <c r="S13">
-        <v>0.005291498400058435</v>
+        <v>0.0671417654313986</v>
       </c>
       <c r="T13">
-        <v>0.007695571808154034</v>
+        <v>0.07682659146346349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.382906</v>
+      </c>
+      <c r="H14">
+        <v>4.765812</v>
+      </c>
+      <c r="I14">
+        <v>0.3551187060531648</v>
+      </c>
+      <c r="J14">
+        <v>0.2975678023682237</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.5867000000000001</v>
-      </c>
-      <c r="H14">
-        <v>1.7601</v>
-      </c>
-      <c r="I14">
-        <v>0.05157263046566488</v>
-      </c>
-      <c r="J14">
-        <v>0.06012783750117986</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N14">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O14">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P14">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q14">
-        <v>0.9710662377500002</v>
+        <v>0.184060425252</v>
       </c>
       <c r="R14">
-        <v>5.826397426500001</v>
+        <v>1.104362551512</v>
       </c>
       <c r="S14">
-        <v>0.004205245855621115</v>
+        <v>0.002490154093428281</v>
       </c>
       <c r="T14">
-        <v>0.004077203217462571</v>
+        <v>0.002849344964161761</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H15">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I15">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J15">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N15">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O15">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P15">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q15">
-        <v>3.585645407166668</v>
+        <v>4.591732376529</v>
       </c>
       <c r="R15">
-        <v>32.27080866450001</v>
+        <v>18.366929506116</v>
       </c>
       <c r="S15">
-        <v>0.01552779810690573</v>
+        <v>0.06212156229502472</v>
       </c>
       <c r="T15">
-        <v>0.0225825042964941</v>
+        <v>0.04738816797410849</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H16">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I16">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J16">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N16">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O16">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P16">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q16">
-        <v>0.0156308614</v>
+        <v>0.02210939617</v>
       </c>
       <c r="R16">
-        <v>0.1406777526</v>
+        <v>0.13265637702</v>
       </c>
       <c r="S16">
-        <v>6.769014570462351E-05</v>
+        <v>0.0002991180928794187</v>
       </c>
       <c r="T16">
-        <v>9.844364253584334E-05</v>
+        <v>0.0003422642132408215</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H17">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I17">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J17">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N17">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O17">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P17">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q17">
-        <v>17.91039582135225</v>
+        <v>0.403620024647</v>
       </c>
       <c r="R17">
-        <v>71.64158328540901</v>
+        <v>2.421720147882</v>
       </c>
       <c r="S17">
-        <v>0.07756177166120952</v>
+        <v>0.005460576629594794</v>
       </c>
       <c r="T17">
-        <v>0.05013343108845381</v>
+        <v>0.006248234421322346</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H18">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I18">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J18">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>6.248004</v>
       </c>
       <c r="O18">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P18">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q18">
-        <v>3.578980609946</v>
+        <v>0.1214875782213333</v>
       </c>
       <c r="R18">
-        <v>21.473883659676</v>
+        <v>1.093388203992</v>
       </c>
       <c r="S18">
-        <v>0.01549893590389503</v>
+        <v>0.001643605841909541</v>
       </c>
       <c r="T18">
-        <v>0.01502701946668312</v>
+        <v>0.002821030257367093</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H19">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I19">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J19">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N19">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O19">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P19">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q19">
-        <v>2.844278168383751</v>
+        <v>0.004505731838666666</v>
       </c>
       <c r="R19">
-        <v>11.377112673535</v>
+        <v>0.04055158654799999</v>
       </c>
       <c r="S19">
-        <v>0.01231727405902119</v>
+        <v>6.09580607378501E-05</v>
       </c>
       <c r="T19">
-        <v>0.007961489236383297</v>
+        <v>0.0001046263826685525</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H20">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I20">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J20">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N20">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O20">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P20">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q20">
-        <v>10.50244829312584</v>
+        <v>0.112403927869</v>
       </c>
       <c r="R20">
-        <v>63.01468975875502</v>
+        <v>0.674423567214</v>
       </c>
       <c r="S20">
-        <v>0.04548132294340235</v>
+        <v>0.001520713106672376</v>
       </c>
       <c r="T20">
-        <v>0.04409649342889734</v>
+        <v>0.001740067509824776</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H21">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I21">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J21">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N21">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O21">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P21">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q21">
-        <v>0.04578319799900001</v>
+        <v>0.0005412299255555555</v>
       </c>
       <c r="R21">
-        <v>0.274699187994</v>
+        <v>0.004871069329999999</v>
       </c>
       <c r="S21">
-        <v>0.0001982661904593394</v>
+        <v>7.322301427712287E-06</v>
       </c>
       <c r="T21">
-        <v>0.0001922293196185717</v>
+        <v>1.256775399212501E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H22">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I22">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J22">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N22">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O22">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P22">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q22">
-        <v>21.9220316727315</v>
+        <v>1.5757390526675</v>
       </c>
       <c r="R22">
-        <v>131.532190036389</v>
+        <v>9.454434316005001</v>
       </c>
       <c r="S22">
-        <v>0.09493434047521951</v>
+        <v>0.02131817878179188</v>
       </c>
       <c r="T22">
-        <v>0.09204375004992006</v>
+        <v>0.02439320743937257</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H23">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I23">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J23">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>6.248004</v>
       </c>
       <c r="O23">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P23">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q23">
-        <v>4.380613754710667</v>
+        <v>0.4742894547533333</v>
       </c>
       <c r="R23">
-        <v>39.42552379239599</v>
+        <v>4.26860509278</v>
       </c>
       <c r="S23">
-        <v>0.01897044415812188</v>
+        <v>0.006416663579945994</v>
       </c>
       <c r="T23">
-        <v>0.02758923923132831</v>
+        <v>0.01101334739072396</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H24">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I24">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J24">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N24">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O24">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P24">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q24">
-        <v>3.481349977705833</v>
+        <v>0.01759044939666667</v>
       </c>
       <c r="R24">
-        <v>20.888099866235</v>
+        <v>0.15831404457</v>
       </c>
       <c r="S24">
-        <v>0.01507614207619393</v>
+        <v>0.0002379812472473714</v>
       </c>
       <c r="T24">
-        <v>0.01461709899739069</v>
+        <v>0.0004084630767622587</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H25">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I25">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J25">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N25">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O25">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P25">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q25">
-        <v>12.85482500887278</v>
+        <v>0.4388267380225001</v>
       </c>
       <c r="R25">
-        <v>115.693425079855</v>
+        <v>2.632960428135</v>
       </c>
       <c r="S25">
-        <v>0.05566839571989528</v>
+        <v>0.005936888369655847</v>
       </c>
       <c r="T25">
-        <v>0.08096008055156133</v>
+        <v>0.006793251479301122</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H26">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I26">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J26">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,338 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N26">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O26">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P26">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q26">
-        <v>0.05603788585266666</v>
+        <v>0.002112970313888889</v>
       </c>
       <c r="R26">
-        <v>0.5043409726739999</v>
+        <v>0.019016732825</v>
       </c>
       <c r="S26">
-        <v>0.0002426745757176291</v>
+        <v>2.858638226668816E-05</v>
       </c>
       <c r="T26">
-        <v>0.0003529283167557425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H27">
-        <v>4.562099</v>
-      </c>
-      <c r="I27">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J27">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>10.4223555</v>
-      </c>
-      <c r="N27">
-        <v>20.844711</v>
-      </c>
-      <c r="O27">
-        <v>0.5134583541362048</v>
-      </c>
-      <c r="P27">
-        <v>0.4269921487868165</v>
-      </c>
-      <c r="Q27">
-        <v>15.8492725347315</v>
-      </c>
-      <c r="R27">
-        <v>95.095635208389</v>
-      </c>
-      <c r="S27">
-        <v>0.06863598491048373</v>
-      </c>
-      <c r="T27">
-        <v>0.06654613502244422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H28">
-        <v>4.562099</v>
-      </c>
-      <c r="I28">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J28">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>2.082668</v>
-      </c>
-      <c r="N28">
-        <v>6.248004</v>
-      </c>
-      <c r="O28">
-        <v>0.1026028409309336</v>
-      </c>
-      <c r="P28">
-        <v>0.1279868381762944</v>
-      </c>
-      <c r="Q28">
-        <v>3.167112533377333</v>
-      </c>
-      <c r="R28">
-        <v>28.504012800396</v>
-      </c>
-      <c r="S28">
-        <v>0.01371532274268972</v>
-      </c>
-      <c r="T28">
-        <v>0.01994657147344339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H29">
-        <v>4.562099</v>
-      </c>
-      <c r="I29">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J29">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.6551325</v>
-      </c>
-      <c r="N29">
-        <v>3.310265</v>
-      </c>
-      <c r="O29">
-        <v>0.0815402630746324</v>
-      </c>
-      <c r="P29">
-        <v>0.0678089115941109</v>
-      </c>
-      <c r="Q29">
-        <v>2.516959441039166</v>
-      </c>
-      <c r="R29">
-        <v>15.101756646235</v>
-      </c>
-      <c r="S29">
-        <v>0.01089980564324938</v>
-      </c>
-      <c r="T29">
-        <v>0.01056792495948115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H30">
-        <v>4.562099</v>
-      </c>
-      <c r="I30">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J30">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>6.111548333333334</v>
-      </c>
-      <c r="N30">
-        <v>18.334645</v>
-      </c>
-      <c r="O30">
-        <v>0.3010860211453351</v>
-      </c>
-      <c r="P30">
-        <v>0.3755748624096281</v>
-      </c>
-      <c r="Q30">
-        <v>9.293829513317222</v>
-      </c>
-      <c r="R30">
-        <v>83.64446561985501</v>
-      </c>
-      <c r="S30">
-        <v>0.04024734515977302</v>
-      </c>
-      <c r="T30">
-        <v>0.05853282215131608</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H31">
-        <v>4.562099</v>
-      </c>
-      <c r="I31">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J31">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.026642</v>
-      </c>
-      <c r="N31">
-        <v>0.079926</v>
-      </c>
-      <c r="O31">
-        <v>0.001312520712894198</v>
-      </c>
-      <c r="P31">
-        <v>0.001637239033150188</v>
-      </c>
-      <c r="Q31">
-        <v>0.04051448051933333</v>
-      </c>
-      <c r="R31">
-        <v>0.364630324674</v>
-      </c>
-      <c r="S31">
-        <v>0.000175449773324764</v>
-      </c>
-      <c r="T31">
-        <v>0.00025516143580997</v>
+        <v>4.90647132461505E-05</v>
       </c>
     </row>
   </sheetData>
